--- a/Working sheet for database model.xlsx
+++ b/Working sheet for database model.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,273 @@
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>author:vazba na tabulku author</t>
+  </si>
+  <si>
+    <t>lastchangetime:datetime</t>
+  </si>
+  <si>
+    <t>isnotred:boolean</t>
+  </si>
+  <si>
+    <t>title:varchar100</t>
+  </si>
+  <si>
+    <t>subtitle:carchar120</t>
+  </si>
+  <si>
+    <t>titleimage:varchar500</t>
+  </si>
+  <si>
+    <t>rating:tinyint</t>
+  </si>
+  <si>
+    <t>offlineversion:bolean - do tabulky seznamu příběhů uživatele</t>
+  </si>
+  <si>
+    <t>bodyimages:varchar5000, odkazy na obrázky</t>
+  </si>
+  <si>
+    <t>monetizetype:varchar30</t>
+  </si>
+  <si>
+    <t>owned:boolean - do tabulky seznamu příběhů uživatele</t>
+  </si>
+  <si>
+    <t>creationdate:datetime</t>
+  </si>
+  <si>
+    <t>hasunredcontent:bool - do tabulky seznamu příběhů uživatele</t>
+  </si>
+  <si>
+    <t>sotires:vazba na tabulku story</t>
+  </si>
+  <si>
+    <t>genres:varchar200</t>
+  </si>
+  <si>
+    <t>abstractbody:varchar1500</t>
+  </si>
+  <si>
+    <t>restrictions:varchar200</t>
+  </si>
+  <si>
+    <t>ifflinestories:int - do tabulky seznamu příběhů uživatele</t>
+  </si>
+  <si>
+    <t>redstory:vlastní tabulka pro propojení uživatele a story, kdy a jak dlouho v sekundách</t>
+  </si>
+  <si>
+    <t>voted:vlastní tabulka pro propojení uživatele a story, kdy a jak volil</t>
+  </si>
+  <si>
+    <t>email:varchar150</t>
+  </si>
+  <si>
+    <t>password:varchar50</t>
+  </si>
+  <si>
+    <t>activated:boolean</t>
+  </si>
+  <si>
+    <t>wantnewsletter:boolean</t>
+  </si>
+  <si>
+    <t>authorprofile:vazba na tabulku author</t>
+  </si>
+  <si>
+    <t>appsettings:vazba na tabulku settings</t>
+  </si>
+  <si>
+    <t>applanguage:varchar80</t>
+  </si>
+  <si>
+    <t>uselivetool:boolean</t>
+  </si>
+  <si>
+    <t>storylines:vazba na tabulku seznamu příběhů uživatele</t>
+  </si>
+  <si>
+    <t>hasnewcontent:boolean</t>
+  </si>
+  <si>
+    <t>storieslanguages:varchar500</t>
+  </si>
+  <si>
+    <t>uidesign:varchar50</t>
+  </si>
+  <si>
+    <t>name:varchar150</t>
+  </si>
+  <si>
+    <t>surename:varchar150</t>
+  </si>
+  <si>
+    <t>title:varchar30</t>
+  </si>
+  <si>
+    <t>pseudonemy:varchar150</t>
+  </si>
+  <si>
+    <t>description:varchar500</t>
+  </si>
+  <si>
+    <t>avatar:varchar500</t>
+  </si>
+  <si>
+    <t>storynames:vazba na tabulku storylines</t>
+  </si>
+  <si>
+    <t>birthadate:datetime</t>
+  </si>
+  <si>
+    <t>authorlanguage:varchar80</t>
+  </si>
+  <si>
+    <t>authorgender:varchar30</t>
+  </si>
+  <si>
+    <t>usepseudonyme:boolean</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>ListOfStorylines</t>
+  </si>
+  <si>
+    <t>Storyline - interface</t>
+  </si>
+  <si>
+    <t>Story - interface</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Subtitle</t>
+  </si>
+  <si>
+    <t>TitleImage</t>
+  </si>
+  <si>
+    <t>CreationTime</t>
+  </si>
+  <si>
+    <t>LastChangeTime</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Vote</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Storyline</t>
+  </si>
+  <si>
+    <t>Genres</t>
+  </si>
+  <si>
+    <t>AbstractBody</t>
+  </si>
+  <si>
+    <t>Restrictions</t>
+  </si>
+  <si>
+    <t>MonetizeType</t>
+  </si>
+  <si>
+    <t>Title:string</t>
+  </si>
+  <si>
+    <t>Subtitle:string</t>
+  </si>
+  <si>
+    <t>Author:Author</t>
+  </si>
+  <si>
+    <t>TitleImage:Image/Bitmap</t>
+  </si>
+  <si>
+    <t>CreationDate:DateTime</t>
+  </si>
+  <si>
+    <t>Třída</t>
+  </si>
+  <si>
+    <t>Property/Metoda</t>
+  </si>
+  <si>
+    <t>Vysvětlivka</t>
+  </si>
+  <si>
+    <t>Storyline():void</t>
+  </si>
+  <si>
+    <t>Základní třída pro kontejner příběhů</t>
+  </si>
+  <si>
+    <t>Nadpis</t>
+  </si>
+  <si>
+    <t>Podnadpis</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>Titulní obrázek, může být null</t>
+  </si>
+  <si>
+    <t>Datum a čas vytvoření</t>
+  </si>
+  <si>
+    <t>Datum poslední změny</t>
+  </si>
+  <si>
+    <t>Hodnocení</t>
+  </si>
+  <si>
+    <t>Žánry</t>
+  </si>
+  <si>
+    <t>Tělo abstraktu</t>
+  </si>
+  <si>
+    <t>Omezení</t>
+  </si>
+  <si>
+    <t>Typ monetizace daný potomkem</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,12 +284,60 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -44,21 +352,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kancelář">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -96,9 +420,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kancelář">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +457,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,7 +492,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kancelář">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -341,13 +665,376 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="7" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="13" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I16" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Working sheet for database model.xlsx
+++ b/Working sheet for database model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="85">
   <si>
     <t>settings</t>
   </si>
@@ -669,7 +669,7 @@
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,6 +729,9 @@
       <c r="D3" t="s">
         <v>74</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="H3" s="8" t="s">
         <v>5</v>
       </c>
@@ -988,9 +991,6 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="H14" s="8" t="s">
         <v>11</v>
       </c>
@@ -999,9 +999,6 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="I15" s="6" t="s">
         <v>32</v>
       </c>
@@ -1036,5 +1033,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>